--- a/Code/Results/Cases/Case_1_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.995870019035035</v>
+        <v>1.044256929020696</v>
       </c>
       <c r="D2">
-        <v>1.049870734058631</v>
+        <v>1.060621967228819</v>
       </c>
       <c r="E2">
-        <v>1.01725617492711</v>
+        <v>1.053262906865078</v>
       </c>
       <c r="F2">
-        <v>1.03955395863741</v>
+        <v>1.066819916247952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062841034439018</v>
+        <v>1.046958685030606</v>
       </c>
       <c r="J2">
-        <v>1.018174962746268</v>
+        <v>1.04932298524398</v>
       </c>
       <c r="K2">
-        <v>1.060676408245732</v>
+        <v>1.063348246543967</v>
       </c>
       <c r="L2">
-        <v>1.028480226629706</v>
+        <v>1.056009359330313</v>
       </c>
       <c r="M2">
-        <v>1.050488432592745</v>
+        <v>1.069529438952142</v>
       </c>
       <c r="N2">
-        <v>1.009336343880302</v>
+        <v>1.020213706455956</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002910053254433</v>
+        <v>1.045692502453099</v>
       </c>
       <c r="D3">
-        <v>1.054300393155066</v>
+        <v>1.061468951822094</v>
       </c>
       <c r="E3">
-        <v>1.023013741808108</v>
+        <v>1.054470043189258</v>
       </c>
       <c r="F3">
-        <v>1.045131939530867</v>
+        <v>1.067951751476877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064765799034397</v>
+        <v>1.04722131680939</v>
       </c>
       <c r="J3">
-        <v>1.023321700427935</v>
+        <v>1.050403334530941</v>
       </c>
       <c r="K3">
-        <v>1.064282616503062</v>
+        <v>1.064009610429053</v>
       </c>
       <c r="L3">
-        <v>1.033360387834808</v>
+        <v>1.057028495864109</v>
       </c>
       <c r="M3">
-        <v>1.055218165567701</v>
+        <v>1.070476152257948</v>
       </c>
       <c r="N3">
-        <v>1.011109545393699</v>
+        <v>1.020579638937778</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00733823852794</v>
+        <v>1.046620592230718</v>
       </c>
       <c r="D4">
-        <v>1.057082965239719</v>
+        <v>1.062015011312353</v>
       </c>
       <c r="E4">
-        <v>1.026640016256943</v>
+        <v>1.055250364797497</v>
       </c>
       <c r="F4">
-        <v>1.048640597123586</v>
+        <v>1.068682560804957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065958628698211</v>
+        <v>1.047388672117753</v>
       </c>
       <c r="J4">
-        <v>1.02655607605737</v>
+        <v>1.051101155815873</v>
       </c>
       <c r="K4">
-        <v>1.066538009585776</v>
+        <v>1.064434919291151</v>
       </c>
       <c r="L4">
-        <v>1.03642720967573</v>
+        <v>1.057686602630173</v>
       </c>
       <c r="M4">
-        <v>1.058185383933691</v>
+        <v>1.071086590525695</v>
       </c>
       <c r="N4">
-        <v>1.012223005988997</v>
+        <v>1.020815802852268</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009171010973947</v>
+        <v>1.047010569526847</v>
       </c>
       <c r="D5">
-        <v>1.058233532919532</v>
+        <v>1.062244097748087</v>
       </c>
       <c r="E5">
-        <v>1.028141912732288</v>
+        <v>1.055578229362672</v>
       </c>
       <c r="F5">
-        <v>1.050092636379761</v>
+        <v>1.068989421079715</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066447920320906</v>
+        <v>1.047458409799171</v>
       </c>
       <c r="J5">
-        <v>1.027893973910714</v>
+        <v>1.051394227240265</v>
       </c>
       <c r="K5">
-        <v>1.067468212846319</v>
+        <v>1.064613088593896</v>
       </c>
       <c r="L5">
-        <v>1.037695759379838</v>
+        <v>1.057962952193285</v>
       </c>
       <c r="M5">
-        <v>1.059411457630555</v>
+        <v>1.071342706570365</v>
       </c>
       <c r="N5">
-        <v>1.012683364502467</v>
+        <v>1.020914939124162</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009477095086286</v>
+        <v>1.047076037343073</v>
       </c>
       <c r="D6">
-        <v>1.058425613496275</v>
+        <v>1.062282534424534</v>
       </c>
       <c r="E6">
-        <v>1.028392795571365</v>
+        <v>1.055633268648592</v>
       </c>
       <c r="F6">
-        <v>1.050335121865262</v>
+        <v>1.069040922526737</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066529372375178</v>
+        <v>1.047470082804403</v>
       </c>
       <c r="J6">
-        <v>1.028117363672315</v>
+        <v>1.051443418161944</v>
       </c>
       <c r="K6">
-        <v>1.067623364718482</v>
+        <v>1.06464296705538</v>
       </c>
       <c r="L6">
-        <v>1.037907566783058</v>
+        <v>1.058009333907245</v>
       </c>
       <c r="M6">
-        <v>1.059616096130372</v>
+        <v>1.071385679607537</v>
       </c>
       <c r="N6">
-        <v>1.012760217338357</v>
+        <v>1.020931575950494</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007362839392244</v>
+        <v>1.046625803873057</v>
       </c>
       <c r="D7">
-        <v>1.057098413689625</v>
+        <v>1.062018074249664</v>
       </c>
       <c r="E7">
-        <v>1.026660171945697</v>
+        <v>1.055254746453572</v>
       </c>
       <c r="F7">
-        <v>1.048660088324304</v>
+        <v>1.068686662545649</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065965213934654</v>
+        <v>1.047389606385915</v>
       </c>
       <c r="J7">
-        <v>1.026574037478743</v>
+        <v>1.051105072996201</v>
       </c>
       <c r="K7">
-        <v>1.066550508673969</v>
+        <v>1.064437302474614</v>
       </c>
       <c r="L7">
-        <v>1.036444240289509</v>
+        <v>1.057690296474551</v>
       </c>
       <c r="M7">
-        <v>1.058201849424498</v>
+        <v>1.07109001477083</v>
       </c>
       <c r="N7">
-        <v>1.012229187254839</v>
+        <v>1.020817128092364</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9982765784354164</v>
+        <v>1.044742261167431</v>
       </c>
       <c r="D8">
-        <v>1.051385602124736</v>
+        <v>1.060908623522255</v>
       </c>
       <c r="E8">
-        <v>1.019223258355458</v>
+        <v>1.053671026920153</v>
       </c>
       <c r="F8">
-        <v>1.041460596650721</v>
+        <v>1.067202750502182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06350267894633</v>
+        <v>1.047047978142473</v>
       </c>
       <c r="J8">
-        <v>1.0199348918774</v>
+        <v>1.049688352565702</v>
       </c>
       <c r="K8">
-        <v>1.061911761181107</v>
+        <v>1.063572304322119</v>
       </c>
       <c r="L8">
-        <v>1.030148985077539</v>
+        <v>1.05635406108331</v>
       </c>
       <c r="M8">
-        <v>1.052106784446516</v>
+        <v>1.069849831330347</v>
       </c>
       <c r="N8">
-        <v>1.009942867150799</v>
+        <v>1.020337503869923</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9812115522743419</v>
+        <v>1.041416687206854</v>
       </c>
       <c r="D9">
-        <v>1.04063766416325</v>
+        <v>1.05893829779798</v>
       </c>
       <c r="E9">
-        <v>1.005300456659204</v>
+        <v>1.050874219850268</v>
       </c>
       <c r="F9">
-        <v>1.027949007548985</v>
+        <v>1.064575821889258</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058739470014294</v>
+        <v>1.046426169455007</v>
       </c>
       <c r="J9">
-        <v>1.007445681900159</v>
+        <v>1.047182279447396</v>
       </c>
       <c r="K9">
-        <v>1.053104119269888</v>
+        <v>1.062027819804771</v>
       </c>
       <c r="L9">
-        <v>1.018308119048783</v>
+        <v>1.053989027430097</v>
       </c>
       <c r="M9">
-        <v>1.040604341359198</v>
+        <v>1.067647915362229</v>
       </c>
       <c r="N9">
-        <v>1.005635538919879</v>
+        <v>1.019487554298124</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9690016444735019</v>
+        <v>1.039194917290081</v>
       </c>
       <c r="D10">
-        <v>1.032952232499782</v>
+        <v>1.057614372624081</v>
       </c>
       <c r="E10">
-        <v>0.9953786270748913</v>
+        <v>1.049005379908639</v>
       </c>
       <c r="F10">
-        <v>1.018302366654351</v>
+        <v>1.062816251956484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055246533057503</v>
+        <v>1.045998278667867</v>
       </c>
       <c r="J10">
-        <v>0.9985015060917398</v>
+        <v>1.045504866172075</v>
       </c>
       <c r="K10">
-        <v>1.046750965384182</v>
+        <v>1.060984482387857</v>
       </c>
       <c r="L10">
-        <v>1.009831826185912</v>
+        <v>1.052405146378307</v>
       </c>
       <c r="M10">
-        <v>1.032348846484979</v>
+        <v>1.066168697942456</v>
       </c>
       <c r="N10">
-        <v>1.002547484336001</v>
+        <v>1.018917628625148</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9634846298069348</v>
+        <v>1.038231672628865</v>
       </c>
       <c r="D11">
-        <v>1.029485059961532</v>
+        <v>1.057038621166413</v>
       </c>
       <c r="E11">
-        <v>0.9909073575520722</v>
+        <v>1.048195084161677</v>
       </c>
       <c r="F11">
-        <v>1.013952077701335</v>
+        <v>1.062052337118542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053650409402789</v>
+        <v>1.045809823045229</v>
       </c>
       <c r="J11">
-        <v>0.994459544247316</v>
+        <v>1.044776888625628</v>
       </c>
       <c r="K11">
-        <v>1.043871558899236</v>
+        <v>1.060529444111991</v>
       </c>
       <c r="L11">
-        <v>1.006002809375393</v>
+        <v>1.051717559557442</v>
       </c>
       <c r="M11">
-        <v>1.02861558898853</v>
+        <v>1.065525473222629</v>
       </c>
       <c r="N11">
-        <v>1.001151416023235</v>
+        <v>1.018670047242491</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9613976373638856</v>
+        <v>1.037873693363967</v>
       </c>
       <c r="D12">
-        <v>1.02817472380784</v>
+        <v>1.056824386777333</v>
       </c>
       <c r="E12">
-        <v>0.9892179695618321</v>
+        <v>1.047893938455852</v>
       </c>
       <c r="F12">
-        <v>1.012308059475347</v>
+        <v>1.061768279911262</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053044159919736</v>
+        <v>1.045739344310483</v>
       </c>
       <c r="J12">
-        <v>0.9929305886270816</v>
+        <v>1.044506233529811</v>
       </c>
       <c r="K12">
-        <v>1.042781340388933</v>
+        <v>1.060359930303192</v>
       </c>
       <c r="L12">
-        <v>1.004554693140014</v>
+        <v>1.051461891576002</v>
       </c>
       <c r="M12">
-        <v>1.027203195280293</v>
+        <v>1.065286140169034</v>
       </c>
       <c r="N12">
-        <v>1.000623265511662</v>
+        <v>1.018577962885475</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9618470667400613</v>
+        <v>1.037950489712121</v>
       </c>
       <c r="D13">
-        <v>1.028456839034061</v>
+        <v>1.056870357761456</v>
       </c>
       <c r="E13">
-        <v>0.9895816806536705</v>
+        <v>1.04795854280164</v>
       </c>
       <c r="F13">
-        <v>1.012662016232902</v>
+        <v>1.061829225012376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053174821901354</v>
+        <v>1.045754483877833</v>
       </c>
       <c r="J13">
-        <v>0.9932598414317114</v>
+        <v>1.044564301433936</v>
       </c>
       <c r="K13">
-        <v>1.043016155644036</v>
+        <v>1.060396313895962</v>
       </c>
       <c r="L13">
-        <v>1.004866523499274</v>
+        <v>1.05151674539809</v>
       </c>
       <c r="M13">
-        <v>1.027507353790215</v>
+        <v>1.065337496558073</v>
       </c>
       <c r="N13">
-        <v>1.000737002297136</v>
+        <v>1.018597720819005</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9633129077042747</v>
+        <v>1.038202085809848</v>
       </c>
       <c r="D14">
-        <v>1.029377215166907</v>
+        <v>1.057020920137404</v>
       </c>
       <c r="E14">
-        <v>0.9907683088504121</v>
+        <v>1.048170194769976</v>
       </c>
       <c r="F14">
-        <v>1.013816769459642</v>
+        <v>1.062028863107052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053600574553767</v>
+        <v>1.045804007005018</v>
       </c>
       <c r="J14">
-        <v>0.9943337367584363</v>
+        <v>1.044754521353942</v>
       </c>
       <c r="K14">
-        <v>1.043781871491445</v>
+        <v>1.060515442100572</v>
       </c>
       <c r="L14">
-        <v>1.005883647382079</v>
+        <v>1.051696431443977</v>
       </c>
       <c r="M14">
-        <v>1.028499375879316</v>
+        <v>1.065505698274706</v>
       </c>
       <c r="N14">
-        <v>1.001107959117972</v>
+        <v>1.018662438009988</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9642109600435723</v>
+        <v>1.038357077454492</v>
       </c>
       <c r="D15">
-        <v>1.029941262178572</v>
+        <v>1.057113636891346</v>
       </c>
       <c r="E15">
-        <v>0.9914955730536027</v>
+        <v>1.048300578439172</v>
       </c>
       <c r="F15">
-        <v>1.014524456860019</v>
+        <v>1.062151826180709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053861096291266</v>
+        <v>1.045834456485388</v>
       </c>
       <c r="J15">
-        <v>0.9949916730183633</v>
+        <v>1.044871688622106</v>
       </c>
       <c r="K15">
-        <v>1.044250870147286</v>
+        <v>1.060588775631455</v>
       </c>
       <c r="L15">
-        <v>1.006506841766839</v>
+        <v>1.051807106369841</v>
       </c>
       <c r="M15">
-        <v>1.029107128764781</v>
+        <v>1.065609278383404</v>
       </c>
       <c r="N15">
-        <v>1.001335223735494</v>
+        <v>1.018702296249588</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9693626823309075</v>
+        <v>1.039258818754984</v>
       </c>
       <c r="D16">
-        <v>1.033179274184084</v>
+        <v>1.057652530899927</v>
       </c>
       <c r="E16">
-        <v>0.9956714955063427</v>
+        <v>1.049059133549337</v>
       </c>
       <c r="F16">
-        <v>1.018587257383925</v>
+        <v>1.0628669078488</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055350632940859</v>
+        <v>1.046010718866542</v>
       </c>
       <c r="J16">
-        <v>0.9987660146280368</v>
+        <v>1.0455531445749</v>
       </c>
       <c r="K16">
-        <v>1.04693924155054</v>
+        <v>1.061014612826189</v>
       </c>
       <c r="L16">
-        <v>1.010082435720033</v>
+        <v>1.052450741931562</v>
       </c>
       <c r="M16">
-        <v>1.032593114686357</v>
+        <v>1.06621132921387</v>
       </c>
       <c r="N16">
-        <v>1.002638834532204</v>
+        <v>1.018934042811976</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9725305161380673</v>
+        <v>1.039824130444985</v>
       </c>
       <c r="D17">
-        <v>1.035172056376753</v>
+        <v>1.057989898954742</v>
       </c>
       <c r="E17">
-        <v>0.9982425614895277</v>
+        <v>1.049534664195101</v>
       </c>
       <c r="F17">
-        <v>1.021087957433193</v>
+        <v>1.063314919367031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056262039095889</v>
+        <v>1.04612043274758</v>
       </c>
       <c r="J17">
-        <v>1.001086828155936</v>
+        <v>1.045980159937933</v>
       </c>
       <c r="K17">
-        <v>1.048590270174365</v>
+        <v>1.061280853645817</v>
       </c>
       <c r="L17">
-        <v>1.012281475296784</v>
+        <v>1.052854004731401</v>
       </c>
       <c r="M17">
-        <v>1.034736072385256</v>
+        <v>1.066588251100794</v>
       </c>
       <c r="N17">
-        <v>1.003440287530984</v>
+        <v>1.019079196159881</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9743562974697113</v>
+        <v>1.040153751497873</v>
       </c>
       <c r="D18">
-        <v>1.036321082088761</v>
+        <v>1.058186440560097</v>
       </c>
       <c r="E18">
-        <v>0.9997254969133124</v>
+        <v>1.049811929669098</v>
       </c>
       <c r="F18">
-        <v>1.022530013523646</v>
+        <v>1.063576043252059</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056785634355056</v>
+        <v>1.046184120604764</v>
       </c>
       <c r="J18">
-        <v>1.002424367285065</v>
+        <v>1.046229072211916</v>
       </c>
       <c r="K18">
-        <v>1.049540995021362</v>
+        <v>1.061435832374078</v>
       </c>
       <c r="L18">
-        <v>1.013548970320894</v>
+        <v>1.053089051944642</v>
       </c>
       <c r="M18">
-        <v>1.035970860724039</v>
+        <v>1.066807841625062</v>
       </c>
       <c r="N18">
-        <v>1.003902130724638</v>
+        <v>1.01916378458095</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9749752064218564</v>
+        <v>1.040266124330338</v>
       </c>
       <c r="D19">
-        <v>1.036710653101054</v>
+        <v>1.058253415596879</v>
       </c>
       <c r="E19">
-        <v>1.000228367258255</v>
+        <v>1.049906452599256</v>
       </c>
       <c r="F19">
-        <v>1.02301896844187</v>
+        <v>1.063665047001165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056962830836124</v>
+        <v>1.046205784570739</v>
       </c>
       <c r="J19">
-        <v>1.002877756158949</v>
+        <v>1.046313918103551</v>
       </c>
       <c r="K19">
-        <v>1.049863122048428</v>
+        <v>1.061488622727201</v>
       </c>
       <c r="L19">
-        <v>1.013978637679055</v>
+        <v>1.053169168393166</v>
       </c>
       <c r="M19">
-        <v>1.036389373134628</v>
+        <v>1.066882672031806</v>
       </c>
       <c r="N19">
-        <v>1.004058673196447</v>
+        <v>1.019192614017435</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9721929308822577</v>
+        <v>1.039763489864275</v>
       </c>
       <c r="D20">
-        <v>1.034959639119435</v>
+        <v>1.057953727336821</v>
       </c>
       <c r="E20">
-        <v>0.9979684557507462</v>
+        <v>1.049483654993683</v>
       </c>
       <c r="F20">
-        <v>1.020821383267893</v>
+        <v>1.063266872025804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056165088169204</v>
+        <v>1.04610869318368</v>
       </c>
       <c r="J20">
-        <v>1.000839512505737</v>
+        <v>1.04593436166394</v>
       </c>
       <c r="K20">
-        <v>1.04841441134563</v>
+        <v>1.061252321123082</v>
       </c>
       <c r="L20">
-        <v>1.012047121725396</v>
+        <v>1.052810755973726</v>
       </c>
       <c r="M20">
-        <v>1.034507734479194</v>
+        <v>1.066547838033725</v>
       </c>
       <c r="N20">
-        <v>1.003354886669616</v>
+        <v>1.019063630561701</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9628823229482097</v>
+        <v>1.038128002252843</v>
       </c>
       <c r="D21">
-        <v>1.029106820988787</v>
+        <v>1.056976593625945</v>
       </c>
       <c r="E21">
-        <v>0.9904196843128223</v>
+        <v>1.048107873150825</v>
       </c>
       <c r="F21">
-        <v>1.013477517982118</v>
+        <v>1.061970083116618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05347557728033</v>
+        <v>1.045789436877654</v>
       </c>
       <c r="J21">
-        <v>0.994018281922104</v>
+        <v>1.044698513316044</v>
       </c>
       <c r="K21">
-        <v>1.043556969987201</v>
+        <v>1.060480375417422</v>
       </c>
       <c r="L21">
-        <v>1.005584860597038</v>
+        <v>1.051643525800554</v>
       </c>
       <c r="M21">
-        <v>1.028207975569594</v>
+        <v>1.065456178424847</v>
       </c>
       <c r="N21">
-        <v>1.000998992634897</v>
+        <v>1.018643383778925</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9568082243658209</v>
+        <v>1.037098619323264</v>
       </c>
       <c r="D22">
-        <v>1.025295997097782</v>
+        <v>1.056360062373695</v>
       </c>
       <c r="E22">
-        <v>0.9855069097894407</v>
+        <v>1.047241903213353</v>
       </c>
       <c r="F22">
-        <v>1.008696173707302</v>
+        <v>1.061152972850985</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051706701281635</v>
+        <v>1.045585942245676</v>
       </c>
       <c r="J22">
-        <v>0.989568582018287</v>
+        <v>1.043920027213925</v>
       </c>
       <c r="K22">
-        <v>1.040382457046356</v>
+        <v>1.059992173202344</v>
       </c>
       <c r="L22">
-        <v>1.001371050815086</v>
+        <v>1.050908091568485</v>
       </c>
       <c r="M22">
-        <v>1.024097303974601</v>
+        <v>1.064767430675399</v>
       </c>
       <c r="N22">
-        <v>0.9994618390009771</v>
+        <v>1.018378453636014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9600502508300337</v>
+        <v>1.037644419895684</v>
       </c>
       <c r="D23">
-        <v>1.027329159477815</v>
+        <v>1.05668710335031</v>
       </c>
       <c r="E23">
-        <v>0.9881278807947929</v>
+        <v>1.047701062783591</v>
       </c>
       <c r="F23">
-        <v>1.011247165339534</v>
+        <v>1.061586307134029</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05265209304589</v>
+        <v>1.045694080997647</v>
       </c>
       <c r="J23">
-        <v>0.9919435090781453</v>
+        <v>1.044332857235625</v>
       </c>
       <c r="K23">
-        <v>1.042077247790991</v>
+        <v>1.060251249062898</v>
       </c>
       <c r="L23">
-        <v>1.003619892481956</v>
+        <v>1.05129810740477</v>
       </c>
       <c r="M23">
-        <v>1.026291329557834</v>
+        <v>1.065132775321804</v>
       </c>
       <c r="N23">
-        <v>1.000282282928328</v>
+        <v>1.018518965363653</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9723455387643869</v>
+        <v>1.039790891090301</v>
       </c>
       <c r="D24">
-        <v>1.035055662415738</v>
+        <v>1.05797007247438</v>
       </c>
       <c r="E24">
-        <v>0.9980923638498944</v>
+        <v>1.049506704176376</v>
       </c>
       <c r="F24">
-        <v>1.020941887678363</v>
+        <v>1.063288583149974</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05620892082088</v>
+        <v>1.046113998734226</v>
       </c>
       <c r="J24">
-        <v>1.000951313555252</v>
+        <v>1.045955056422879</v>
       </c>
       <c r="K24">
-        <v>1.048493912265005</v>
+        <v>1.061265214715757</v>
       </c>
       <c r="L24">
-        <v>1.01215306274072</v>
+        <v>1.05283029874873</v>
       </c>
       <c r="M24">
-        <v>1.034610957268754</v>
+        <v>1.066566099768017</v>
       </c>
       <c r="N24">
-        <v>1.003393492989097</v>
+        <v>1.019070664223777</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.985760174926144</v>
+        <v>1.042277235533223</v>
       </c>
       <c r="D25">
-        <v>1.043503009297182</v>
+        <v>1.059449497804003</v>
       </c>
       <c r="E25">
-        <v>1.009005465854551</v>
+        <v>1.051598004469966</v>
       </c>
       <c r="F25">
-        <v>1.03154799911369</v>
+        <v>1.065256394283422</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06002424792355</v>
+        <v>1.046589273048007</v>
       </c>
       <c r="J25">
-        <v>1.010776456404856</v>
+        <v>1.047831323514376</v>
       </c>
       <c r="K25">
-        <v>1.055461549080415</v>
+        <v>1.06242951232218</v>
       </c>
       <c r="L25">
-        <v>1.02146557375896</v>
+        <v>1.054601698990248</v>
       </c>
       <c r="M25">
-        <v>1.043675545817376</v>
+        <v>1.068219139779789</v>
       </c>
       <c r="N25">
-        <v>1.006784916702818</v>
+        <v>1.019707861680131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_114/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_114/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044256929020696</v>
+        <v>0.9958700190350351</v>
       </c>
       <c r="D2">
-        <v>1.060621967228819</v>
+        <v>1.049870734058632</v>
       </c>
       <c r="E2">
-        <v>1.053262906865078</v>
+        <v>1.01725617492711</v>
       </c>
       <c r="F2">
-        <v>1.066819916247952</v>
+        <v>1.03955395863741</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046958685030606</v>
+        <v>1.062841034439019</v>
       </c>
       <c r="J2">
-        <v>1.04932298524398</v>
+        <v>1.018174962746268</v>
       </c>
       <c r="K2">
-        <v>1.063348246543967</v>
+        <v>1.060676408245733</v>
       </c>
       <c r="L2">
-        <v>1.056009359330313</v>
+        <v>1.028480226629707</v>
       </c>
       <c r="M2">
-        <v>1.069529438952142</v>
+        <v>1.050488432592746</v>
       </c>
       <c r="N2">
-        <v>1.020213706455956</v>
+        <v>1.009336343880302</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045692502453099</v>
+        <v>1.002910053254433</v>
       </c>
       <c r="D3">
-        <v>1.061468951822094</v>
+        <v>1.054300393155066</v>
       </c>
       <c r="E3">
-        <v>1.054470043189258</v>
+        <v>1.023013741808108</v>
       </c>
       <c r="F3">
-        <v>1.067951751476877</v>
+        <v>1.045131939530867</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04722131680939</v>
+        <v>1.064765799034397</v>
       </c>
       <c r="J3">
-        <v>1.050403334530941</v>
+        <v>1.023321700427935</v>
       </c>
       <c r="K3">
-        <v>1.064009610429053</v>
+        <v>1.064282616503061</v>
       </c>
       <c r="L3">
-        <v>1.057028495864109</v>
+        <v>1.033360387834808</v>
       </c>
       <c r="M3">
-        <v>1.070476152257948</v>
+        <v>1.055218165567701</v>
       </c>
       <c r="N3">
-        <v>1.020579638937778</v>
+        <v>1.011109545393699</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046620592230718</v>
+        <v>1.00733823852794</v>
       </c>
       <c r="D4">
-        <v>1.062015011312353</v>
+        <v>1.057082965239719</v>
       </c>
       <c r="E4">
-        <v>1.055250364797497</v>
+        <v>1.026640016256943</v>
       </c>
       <c r="F4">
-        <v>1.068682560804957</v>
+        <v>1.048640597123585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047388672117753</v>
+        <v>1.065958628698211</v>
       </c>
       <c r="J4">
-        <v>1.051101155815873</v>
+        <v>1.02655607605737</v>
       </c>
       <c r="K4">
-        <v>1.064434919291151</v>
+        <v>1.066538009585776</v>
       </c>
       <c r="L4">
-        <v>1.057686602630173</v>
+        <v>1.03642720967573</v>
       </c>
       <c r="M4">
-        <v>1.071086590525695</v>
+        <v>1.05818538393369</v>
       </c>
       <c r="N4">
-        <v>1.020815802852268</v>
+        <v>1.012223005988997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047010569526847</v>
+        <v>1.009171010973947</v>
       </c>
       <c r="D5">
-        <v>1.062244097748087</v>
+        <v>1.058233532919532</v>
       </c>
       <c r="E5">
-        <v>1.055578229362672</v>
+        <v>1.028141912732288</v>
       </c>
       <c r="F5">
-        <v>1.068989421079715</v>
+        <v>1.050092636379761</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047458409799171</v>
+        <v>1.066447920320906</v>
       </c>
       <c r="J5">
-        <v>1.051394227240265</v>
+        <v>1.027893973910714</v>
       </c>
       <c r="K5">
-        <v>1.064613088593896</v>
+        <v>1.067468212846319</v>
       </c>
       <c r="L5">
-        <v>1.057962952193285</v>
+        <v>1.037695759379838</v>
       </c>
       <c r="M5">
-        <v>1.071342706570365</v>
+        <v>1.059411457630555</v>
       </c>
       <c r="N5">
-        <v>1.020914939124162</v>
+        <v>1.012683364502467</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047076037343073</v>
+        <v>1.009477095086286</v>
       </c>
       <c r="D6">
-        <v>1.062282534424534</v>
+        <v>1.058425613496276</v>
       </c>
       <c r="E6">
-        <v>1.055633268648592</v>
+        <v>1.028392795571366</v>
       </c>
       <c r="F6">
-        <v>1.069040922526737</v>
+        <v>1.050335121865263</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047470082804403</v>
+        <v>1.066529372375179</v>
       </c>
       <c r="J6">
-        <v>1.051443418161944</v>
+        <v>1.028117363672316</v>
       </c>
       <c r="K6">
-        <v>1.06464296705538</v>
+        <v>1.067623364718483</v>
       </c>
       <c r="L6">
-        <v>1.058009333907245</v>
+        <v>1.037907566783058</v>
       </c>
       <c r="M6">
-        <v>1.071385679607537</v>
+        <v>1.059616096130373</v>
       </c>
       <c r="N6">
-        <v>1.020931575950494</v>
+        <v>1.012760217338357</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046625803873057</v>
+        <v>1.007362839392245</v>
       </c>
       <c r="D7">
-        <v>1.062018074249664</v>
+        <v>1.057098413689625</v>
       </c>
       <c r="E7">
-        <v>1.055254746453572</v>
+        <v>1.026660171945697</v>
       </c>
       <c r="F7">
-        <v>1.068686662545649</v>
+        <v>1.048660088324304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047389606385915</v>
+        <v>1.065965213934654</v>
       </c>
       <c r="J7">
-        <v>1.051105072996201</v>
+        <v>1.026574037478744</v>
       </c>
       <c r="K7">
-        <v>1.064437302474614</v>
+        <v>1.066550508673969</v>
       </c>
       <c r="L7">
-        <v>1.057690296474551</v>
+        <v>1.036444240289509</v>
       </c>
       <c r="M7">
-        <v>1.07109001477083</v>
+        <v>1.058201849424498</v>
       </c>
       <c r="N7">
-        <v>1.020817128092364</v>
+        <v>1.01222918725484</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044742261167431</v>
+        <v>0.998276578435416</v>
       </c>
       <c r="D8">
-        <v>1.060908623522255</v>
+        <v>1.051385602124737</v>
       </c>
       <c r="E8">
-        <v>1.053671026920153</v>
+        <v>1.019223258355458</v>
       </c>
       <c r="F8">
-        <v>1.067202750502182</v>
+        <v>1.041460596650721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047047978142473</v>
+        <v>1.06350267894633</v>
       </c>
       <c r="J8">
-        <v>1.049688352565702</v>
+        <v>1.0199348918774</v>
       </c>
       <c r="K8">
-        <v>1.063572304322119</v>
+        <v>1.061911761181107</v>
       </c>
       <c r="L8">
-        <v>1.05635406108331</v>
+        <v>1.030148985077539</v>
       </c>
       <c r="M8">
-        <v>1.069849831330347</v>
+        <v>1.052106784446516</v>
       </c>
       <c r="N8">
-        <v>1.020337503869923</v>
+        <v>1.009942867150799</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041416687206854</v>
+        <v>0.9812115522743406</v>
       </c>
       <c r="D9">
-        <v>1.05893829779798</v>
+        <v>1.040637664163248</v>
       </c>
       <c r="E9">
-        <v>1.050874219850268</v>
+        <v>1.005300456659203</v>
       </c>
       <c r="F9">
-        <v>1.064575821889258</v>
+        <v>1.027949007548983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046426169455007</v>
+        <v>1.058739470014294</v>
       </c>
       <c r="J9">
-        <v>1.047182279447396</v>
+        <v>1.007445681900158</v>
       </c>
       <c r="K9">
-        <v>1.062027819804771</v>
+        <v>1.053104119269887</v>
       </c>
       <c r="L9">
-        <v>1.053989027430097</v>
+        <v>1.018308119048781</v>
       </c>
       <c r="M9">
-        <v>1.067647915362229</v>
+        <v>1.040604341359197</v>
       </c>
       <c r="N9">
-        <v>1.019487554298124</v>
+        <v>1.005635538919879</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039194917290081</v>
+        <v>0.9690016444735021</v>
       </c>
       <c r="D10">
-        <v>1.057614372624081</v>
+        <v>1.032952232499782</v>
       </c>
       <c r="E10">
-        <v>1.049005379908639</v>
+        <v>0.9953786270748917</v>
       </c>
       <c r="F10">
-        <v>1.062816251956484</v>
+        <v>1.018302366654352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045998278667867</v>
+        <v>1.055246533057503</v>
       </c>
       <c r="J10">
-        <v>1.045504866172075</v>
+        <v>0.9985015060917398</v>
       </c>
       <c r="K10">
-        <v>1.060984482387857</v>
+        <v>1.046750965384182</v>
       </c>
       <c r="L10">
-        <v>1.052405146378307</v>
+        <v>1.009831826185912</v>
       </c>
       <c r="M10">
-        <v>1.066168697942456</v>
+        <v>1.03234884648498</v>
       </c>
       <c r="N10">
-        <v>1.018917628625148</v>
+        <v>1.002547484336001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038231672628865</v>
+        <v>0.9634846298069333</v>
       </c>
       <c r="D11">
-        <v>1.057038621166413</v>
+        <v>1.02948505996153</v>
       </c>
       <c r="E11">
-        <v>1.048195084161677</v>
+        <v>0.9909073575520706</v>
       </c>
       <c r="F11">
-        <v>1.062052337118542</v>
+        <v>1.013952077701334</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045809823045229</v>
+        <v>1.053650409402788</v>
       </c>
       <c r="J11">
-        <v>1.044776888625628</v>
+        <v>0.9944595442473146</v>
       </c>
       <c r="K11">
-        <v>1.060529444111991</v>
+        <v>1.043871558899234</v>
       </c>
       <c r="L11">
-        <v>1.051717559557442</v>
+        <v>1.006002809375391</v>
       </c>
       <c r="M11">
-        <v>1.065525473222629</v>
+        <v>1.028615588988528</v>
       </c>
       <c r="N11">
-        <v>1.018670047242491</v>
+        <v>1.001151416023235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037873693363967</v>
+        <v>0.9613976373638852</v>
       </c>
       <c r="D12">
-        <v>1.056824386777333</v>
+        <v>1.02817472380784</v>
       </c>
       <c r="E12">
-        <v>1.047893938455852</v>
+        <v>0.9892179695618317</v>
       </c>
       <c r="F12">
-        <v>1.061768279911262</v>
+        <v>1.012308059475347</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045739344310483</v>
+        <v>1.053044159919736</v>
       </c>
       <c r="J12">
-        <v>1.044506233529811</v>
+        <v>0.9929305886270812</v>
       </c>
       <c r="K12">
-        <v>1.060359930303192</v>
+        <v>1.042781340388933</v>
       </c>
       <c r="L12">
-        <v>1.051461891576002</v>
+        <v>1.004554693140013</v>
       </c>
       <c r="M12">
-        <v>1.065286140169034</v>
+        <v>1.027203195280293</v>
       </c>
       <c r="N12">
-        <v>1.018577962885475</v>
+        <v>1.000623265511662</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037950489712121</v>
+        <v>0.9618470667400608</v>
       </c>
       <c r="D13">
-        <v>1.056870357761456</v>
+        <v>1.028456839034061</v>
       </c>
       <c r="E13">
-        <v>1.04795854280164</v>
+        <v>0.9895816806536704</v>
       </c>
       <c r="F13">
-        <v>1.061829225012376</v>
+        <v>1.012662016232901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045754483877833</v>
+        <v>1.053174821901354</v>
       </c>
       <c r="J13">
-        <v>1.044564301433936</v>
+        <v>0.9932598414317112</v>
       </c>
       <c r="K13">
-        <v>1.060396313895962</v>
+        <v>1.043016155644036</v>
       </c>
       <c r="L13">
-        <v>1.05151674539809</v>
+        <v>1.004866523499274</v>
       </c>
       <c r="M13">
-        <v>1.065337496558073</v>
+        <v>1.027507353790214</v>
       </c>
       <c r="N13">
-        <v>1.018597720819005</v>
+        <v>1.000737002297136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038202085809848</v>
+        <v>0.9633129077042734</v>
       </c>
       <c r="D14">
-        <v>1.057020920137404</v>
+        <v>1.029377215166907</v>
       </c>
       <c r="E14">
-        <v>1.048170194769976</v>
+        <v>0.9907683088504112</v>
       </c>
       <c r="F14">
-        <v>1.062028863107052</v>
+        <v>1.013816769459641</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045804007005018</v>
+        <v>1.053600574553767</v>
       </c>
       <c r="J14">
-        <v>1.044754521353942</v>
+        <v>0.9943337367584353</v>
       </c>
       <c r="K14">
-        <v>1.060515442100572</v>
+        <v>1.043781871491445</v>
       </c>
       <c r="L14">
-        <v>1.051696431443977</v>
+        <v>1.005883647382078</v>
       </c>
       <c r="M14">
-        <v>1.065505698274706</v>
+        <v>1.028499375879316</v>
       </c>
       <c r="N14">
-        <v>1.018662438009988</v>
+        <v>1.001107959117971</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038357077454492</v>
+        <v>0.9642109600435723</v>
       </c>
       <c r="D15">
-        <v>1.057113636891346</v>
+        <v>1.029941262178571</v>
       </c>
       <c r="E15">
-        <v>1.048300578439172</v>
+        <v>0.9914955730536026</v>
       </c>
       <c r="F15">
-        <v>1.062151826180709</v>
+        <v>1.014524456860018</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045834456485388</v>
+        <v>1.053861096291266</v>
       </c>
       <c r="J15">
-        <v>1.044871688622106</v>
+        <v>0.9949916730183631</v>
       </c>
       <c r="K15">
-        <v>1.060588775631455</v>
+        <v>1.044250870147286</v>
       </c>
       <c r="L15">
-        <v>1.051807106369841</v>
+        <v>1.006506841766838</v>
       </c>
       <c r="M15">
-        <v>1.065609278383404</v>
+        <v>1.029107128764781</v>
       </c>
       <c r="N15">
-        <v>1.018702296249588</v>
+        <v>1.001335223735493</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039258818754984</v>
+        <v>0.9693626823309073</v>
       </c>
       <c r="D16">
-        <v>1.057652530899927</v>
+        <v>1.033179274184083</v>
       </c>
       <c r="E16">
-        <v>1.049059133549337</v>
+        <v>0.9956714955063428</v>
       </c>
       <c r="F16">
-        <v>1.0628669078488</v>
+        <v>1.018587257383925</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046010718866542</v>
+        <v>1.055350632940859</v>
       </c>
       <c r="J16">
-        <v>1.0455531445749</v>
+        <v>0.9987660146280366</v>
       </c>
       <c r="K16">
-        <v>1.061014612826189</v>
+        <v>1.046939241550539</v>
       </c>
       <c r="L16">
-        <v>1.052450741931562</v>
+        <v>1.010082435720032</v>
       </c>
       <c r="M16">
-        <v>1.06621132921387</v>
+        <v>1.032593114686356</v>
       </c>
       <c r="N16">
-        <v>1.018934042811976</v>
+        <v>1.002638834532203</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039824130444985</v>
+        <v>0.9725305161380667</v>
       </c>
       <c r="D17">
-        <v>1.057989898954742</v>
+        <v>1.035172056376752</v>
       </c>
       <c r="E17">
-        <v>1.049534664195101</v>
+        <v>0.9982425614895268</v>
       </c>
       <c r="F17">
-        <v>1.063314919367031</v>
+        <v>1.021087957433193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04612043274758</v>
+        <v>1.056262039095889</v>
       </c>
       <c r="J17">
-        <v>1.045980159937933</v>
+        <v>1.001086828155936</v>
       </c>
       <c r="K17">
-        <v>1.061280853645817</v>
+        <v>1.048590270174365</v>
       </c>
       <c r="L17">
-        <v>1.052854004731401</v>
+        <v>1.012281475296783</v>
       </c>
       <c r="M17">
-        <v>1.066588251100794</v>
+        <v>1.034736072385255</v>
       </c>
       <c r="N17">
-        <v>1.019079196159881</v>
+        <v>1.003440287530983</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040153751497873</v>
+        <v>0.9743562974697108</v>
       </c>
       <c r="D18">
-        <v>1.058186440560097</v>
+        <v>1.03632108208876</v>
       </c>
       <c r="E18">
-        <v>1.049811929669098</v>
+        <v>0.999725496913312</v>
       </c>
       <c r="F18">
-        <v>1.063576043252059</v>
+        <v>1.022530013523645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046184120604764</v>
+        <v>1.056785634355055</v>
       </c>
       <c r="J18">
-        <v>1.046229072211916</v>
+        <v>1.002424367285064</v>
       </c>
       <c r="K18">
-        <v>1.061435832374078</v>
+        <v>1.049540995021362</v>
       </c>
       <c r="L18">
-        <v>1.053089051944642</v>
+        <v>1.013548970320894</v>
       </c>
       <c r="M18">
-        <v>1.066807841625062</v>
+        <v>1.035970860724039</v>
       </c>
       <c r="N18">
-        <v>1.01916378458095</v>
+        <v>1.003902130724638</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040266124330338</v>
+        <v>0.9749752064218573</v>
       </c>
       <c r="D19">
-        <v>1.058253415596879</v>
+        <v>1.036710653101054</v>
       </c>
       <c r="E19">
-        <v>1.049906452599256</v>
+        <v>1.000228367258255</v>
       </c>
       <c r="F19">
-        <v>1.063665047001165</v>
+        <v>1.02301896844187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046205784570739</v>
+        <v>1.056962830836124</v>
       </c>
       <c r="J19">
-        <v>1.046313918103551</v>
+        <v>1.002877756158949</v>
       </c>
       <c r="K19">
-        <v>1.061488622727201</v>
+        <v>1.049863122048428</v>
       </c>
       <c r="L19">
-        <v>1.053169168393166</v>
+        <v>1.013978637679056</v>
       </c>
       <c r="M19">
-        <v>1.066882672031806</v>
+        <v>1.036389373134628</v>
       </c>
       <c r="N19">
-        <v>1.019192614017435</v>
+        <v>1.004058673196447</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039763489864275</v>
+        <v>0.9721929308822573</v>
       </c>
       <c r="D20">
-        <v>1.057953727336821</v>
+        <v>1.034959639119435</v>
       </c>
       <c r="E20">
-        <v>1.049483654993683</v>
+        <v>0.9979684557507456</v>
       </c>
       <c r="F20">
-        <v>1.063266872025804</v>
+        <v>1.020821383267893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04610869318368</v>
+        <v>1.056165088169204</v>
       </c>
       <c r="J20">
-        <v>1.04593436166394</v>
+        <v>1.000839512505736</v>
       </c>
       <c r="K20">
-        <v>1.061252321123082</v>
+        <v>1.04841441134563</v>
       </c>
       <c r="L20">
-        <v>1.052810755973726</v>
+        <v>1.012047121725395</v>
       </c>
       <c r="M20">
-        <v>1.066547838033725</v>
+        <v>1.034507734479194</v>
       </c>
       <c r="N20">
-        <v>1.019063630561701</v>
+        <v>1.003354886669616</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038128002252843</v>
+        <v>0.9628823229482092</v>
       </c>
       <c r="D21">
-        <v>1.056976593625945</v>
+        <v>1.029106820988787</v>
       </c>
       <c r="E21">
-        <v>1.048107873150825</v>
+        <v>0.9904196843128219</v>
       </c>
       <c r="F21">
-        <v>1.061970083116618</v>
+        <v>1.013477517982118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045789436877654</v>
+        <v>1.05347557728033</v>
       </c>
       <c r="J21">
-        <v>1.044698513316044</v>
+        <v>0.9940182819221034</v>
       </c>
       <c r="K21">
-        <v>1.060480375417422</v>
+        <v>1.043556969987201</v>
       </c>
       <c r="L21">
-        <v>1.051643525800554</v>
+        <v>1.005584860597037</v>
       </c>
       <c r="M21">
-        <v>1.065456178424847</v>
+        <v>1.028207975569593</v>
       </c>
       <c r="N21">
-        <v>1.018643383778925</v>
+        <v>1.000998992634897</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037098619323264</v>
+        <v>0.9568082243658211</v>
       </c>
       <c r="D22">
-        <v>1.056360062373695</v>
+        <v>1.025295997097783</v>
       </c>
       <c r="E22">
-        <v>1.047241903213353</v>
+        <v>0.9855069097894414</v>
       </c>
       <c r="F22">
-        <v>1.061152972850985</v>
+        <v>1.008696173707302</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045585942245676</v>
+        <v>1.051706701281635</v>
       </c>
       <c r="J22">
-        <v>1.043920027213925</v>
+        <v>0.9895685820182877</v>
       </c>
       <c r="K22">
-        <v>1.059992173202344</v>
+        <v>1.040382457046356</v>
       </c>
       <c r="L22">
-        <v>1.050908091568485</v>
+        <v>1.001371050815086</v>
       </c>
       <c r="M22">
-        <v>1.064767430675399</v>
+        <v>1.024097303974601</v>
       </c>
       <c r="N22">
-        <v>1.018378453636014</v>
+        <v>0.9994618390009772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037644419895684</v>
+        <v>0.9600502508300335</v>
       </c>
       <c r="D23">
-        <v>1.05668710335031</v>
+        <v>1.027329159477815</v>
       </c>
       <c r="E23">
-        <v>1.047701062783591</v>
+        <v>0.9881278807947925</v>
       </c>
       <c r="F23">
-        <v>1.061586307134029</v>
+        <v>1.011247165339534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045694080997647</v>
+        <v>1.05265209304589</v>
       </c>
       <c r="J23">
-        <v>1.044332857235625</v>
+        <v>0.9919435090781452</v>
       </c>
       <c r="K23">
-        <v>1.060251249062898</v>
+        <v>1.042077247790992</v>
       </c>
       <c r="L23">
-        <v>1.05129810740477</v>
+        <v>1.003619892481956</v>
       </c>
       <c r="M23">
-        <v>1.065132775321804</v>
+        <v>1.026291329557834</v>
       </c>
       <c r="N23">
-        <v>1.018518965363653</v>
+        <v>1.000282282928328</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039790891090301</v>
+        <v>0.9723455387643875</v>
       </c>
       <c r="D24">
-        <v>1.05797007247438</v>
+        <v>1.035055662415739</v>
       </c>
       <c r="E24">
-        <v>1.049506704176376</v>
+        <v>0.9980923638498949</v>
       </c>
       <c r="F24">
-        <v>1.063288583149974</v>
+        <v>1.020941887678364</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046113998734226</v>
+        <v>1.056208920820881</v>
       </c>
       <c r="J24">
-        <v>1.045955056422879</v>
+        <v>1.000951313555253</v>
       </c>
       <c r="K24">
-        <v>1.061265214715757</v>
+        <v>1.048493912265006</v>
       </c>
       <c r="L24">
-        <v>1.05283029874873</v>
+        <v>1.01215306274072</v>
       </c>
       <c r="M24">
-        <v>1.066566099768017</v>
+        <v>1.034610957268755</v>
       </c>
       <c r="N24">
-        <v>1.019070664223777</v>
+        <v>1.003393492989098</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042277235533223</v>
+        <v>0.9857601749261435</v>
       </c>
       <c r="D25">
-        <v>1.059449497804003</v>
+        <v>1.043503009297182</v>
       </c>
       <c r="E25">
-        <v>1.051598004469966</v>
+        <v>1.009005465854551</v>
       </c>
       <c r="F25">
-        <v>1.065256394283422</v>
+        <v>1.03154799911369</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046589273048007</v>
+        <v>1.06002424792355</v>
       </c>
       <c r="J25">
-        <v>1.047831323514376</v>
+        <v>1.010776456404856</v>
       </c>
       <c r="K25">
-        <v>1.06242951232218</v>
+        <v>1.055461549080415</v>
       </c>
       <c r="L25">
-        <v>1.054601698990248</v>
+        <v>1.02146557375896</v>
       </c>
       <c r="M25">
-        <v>1.068219139779789</v>
+        <v>1.043675545817376</v>
       </c>
       <c r="N25">
-        <v>1.019707861680131</v>
+        <v>1.006784916702818</v>
       </c>
     </row>
   </sheetData>
